--- a/biology/Zoologie/Frederick_Nutter_Chasen/Frederick_Nutter_Chasen.xlsx
+++ b/biology/Zoologie/Frederick_Nutter_Chasen/Frederick_Nutter_Chasen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Nutter Chasen (1896-1942) était un zoologiste anglais.
 Chasen a été nommé conservateur adjoint du Muséum du Raffles à Singapour en 1921, et directeur en 1932, succédant ainsi à Cecil Boden Kloss. Il était une autorité sur les oiseaux et les mammifères d'Asie du Sud-est. Il a préparé le troisième et quatrième volumes du livre d'Herbert Christopher Robinson, The Birds of the Malay Peninsula (Les oiseaux de la péninsule malaise). Il est mort en tentant de fuir Singapour au début de 1942, à la suite de l'occupation de l'île par des forces japonaises de l'île, lorsque le navire sur lequel il était fut coulé par l'ennemi.
